--- a/tests/testthat/fixtures/ex3/tables/irt_poly_booklet1.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_poly_booklet1.xlsx
@@ -148,25 +148,25 @@
     <t xml:space="preserve">step3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28 (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 (0.132)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92 (0.092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00 (0.092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
+    <t xml:space="preserve">0.29 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93 (0.132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95 (0.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.01 (0.092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
   </si>
 </sst>
 </file>
@@ -544,34 +544,34 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D2" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E2" t="n">
-        <v>76.38</v>
+        <v>77.02</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.46</v>
+        <v>-1.5</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K2" t="n">
         <v>0.05</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -582,10 +582,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D3" t="n">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
@@ -598,16 +598,16 @@
         <v>0.94</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.1</v>
+        <v>-1.08</v>
       </c>
       <c r="J3" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -618,34 +618,34 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E4" t="n">
-        <v>42.17</v>
+        <v>41.74</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H4" t="n">
         <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="K4" t="n">
         <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -656,32 +656,32 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D5" t="n">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.54</v>
+        <v>-0.31</v>
       </c>
       <c r="J5" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="K5" t="n">
         <v>0.05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -692,34 +692,34 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D6" t="n">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="E6" t="n">
-        <v>11.15</v>
+        <v>12.03</v>
       </c>
       <c r="F6" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08</v>
+        <v>-0.18</v>
       </c>
       <c r="J6" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="K6" t="n">
         <v>0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -730,34 +730,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D7" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E7" t="n">
-        <v>75.76</v>
+        <v>75.95</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.4</v>
+        <v>-1.42</v>
       </c>
       <c r="G7" t="n">
         <v>0.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="I7" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -768,16 +768,16 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D8" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E8" t="n">
-        <v>72.63</v>
+        <v>72.52</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.21</v>
+        <v>-1.2</v>
       </c>
       <c r="G8" t="n">
         <v>0.1</v>
@@ -789,13 +789,13 @@
         <v>1.32</v>
       </c>
       <c r="J8" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="K8" t="n">
         <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
@@ -806,34 +806,34 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D9" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E9" t="n">
-        <v>65.26</v>
+        <v>64.91</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="G9" t="n">
         <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="J9" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="10">
@@ -844,16 +844,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D10" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E10" t="n">
-        <v>62.99</v>
+        <v>62.35</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.66</v>
+        <v>-0.63</v>
       </c>
       <c r="G10" t="n">
         <v>0.09</v>
@@ -862,16 +862,16 @@
         <v>1.03</v>
       </c>
       <c r="I10" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="J10" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K10" t="n">
         <v>0.05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11">
@@ -882,14 +882,14 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D11" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
-        <v>-1.1</v>
+        <v>-1.09</v>
       </c>
       <c r="G11" t="n">
         <v>0.05</v>
@@ -898,7 +898,7 @@
         <v>0.93</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.84</v>
+        <v>-0.91</v>
       </c>
       <c r="J11" t="n">
         <v>0.36</v>
@@ -907,7 +907,7 @@
         <v>0.04</v>
       </c>
       <c r="L11" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -955,25 +955,25 @@
         <v>39</v>
       </c>
       <c r="B2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C2" t="n">
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>7607</v>
+        <v>7756</v>
       </c>
       <c r="E2" t="n">
-        <v>7637</v>
+        <v>7786</v>
       </c>
       <c r="F2" t="n">
-        <v>7705</v>
+        <v>7854</v>
       </c>
       <c r="G2" t="n">
-        <v>0.616</v>
+        <v>0.622</v>
       </c>
       <c r="H2" t="n">
-        <v>0.482</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="3">
@@ -981,25 +981,25 @@
         <v>40</v>
       </c>
       <c r="B3" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C3" t="n">
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>7582</v>
+        <v>7730</v>
       </c>
       <c r="E3" t="n">
-        <v>7630</v>
+        <v>7778</v>
       </c>
       <c r="F3" t="n">
-        <v>7739</v>
+        <v>7887</v>
       </c>
       <c r="G3" t="n">
-        <v>0.625</v>
+        <v>0.635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.479</v>
+        <v>0.508</v>
       </c>
     </row>
   </sheetData>
